--- a/src/api/data/关于鸿昇.xlsx
+++ b/src/api/data/关于鸿昇.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\hongsheng3\src\api\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucky\Desktop\网站翻译\资料修改\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="15960" windowHeight="18090"/>
   </bookViews>
   <sheets>
     <sheet name="头部导航" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>zh</t>
   </si>
@@ -54,73 +54,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>鸿昇集团致力于电子、制造、消费、实业以及烘焙和甜点行业。作为公认的连通及线束行业先锋，鸿昇集团提供最全面的服务以及最具竞争力的价格。鸿昇集团的产品以其质量、扩展性、易用性以及创新型技术而广受欢迎。我们仔细聆听客户心声并与其密切合作确保提供上乘的产品和服务满足其需求。鸿昇集团训练有素的员工及其全心服务随时为您提供全年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>365</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天无休一周</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天及一天</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小时服务。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>超过</t>
     </r>
     <r>
@@ -128,6 +61,7 @@
         <sz val="14"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>30</t>
     </r>
@@ -155,6 +89,199 @@
     <t>Organization Structure</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>關於我們</t>
+  </si>
+  <si>
+    <t>About us</t>
+  </si>
+  <si>
+    <t>年成立於香港</t>
+  </si>
+  <si>
+    <r>
+      <t>超過</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年的成功運營</t>
+    </r>
+  </si>
+  <si>
+    <t>致力於電子、製造、消費、實業以及烘焙和甜點行業</t>
+  </si>
+  <si>
+    <t>組織架構</t>
+  </si>
+  <si>
+    <t>More than 30 years of successful operation</t>
+  </si>
+  <si>
+    <t>Dedicated to electronics, manufacturing, consumption, industry, baking and dessert industry.</t>
+  </si>
+  <si>
+    <t>1984</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>was founded in Hongkong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鸿昇集团致力于电子、制造、消费、实业以及烘焙和甜点行业。作为公认的连接器及线束行业先锋，鸿昇集团提供最全面的服务以及最具竞争力的价格。鸿昇集团的产品以其质量、扩展性、易用性以及创新型技术而广受欢迎。我们仔细聆听客户心声并与其密切合作确保提供上乘的产品和服务满足其需求。鸿昇集团训练有素的员工及其全心服务随时为您提供全年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>365</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天无休一周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天及一天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小时服务。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>鴻昇集團致力於電子、製造、消費、實業以及烘焙和甜點行業。作為公認的連接器及線束行業先鋒，鴻昇集團提供最全面的服務以及最具競爭力的價格。鴻昇集團的產品以其質量、擴展性、易用性以及創新型科技而廣受歡迎。我們仔細聆聽客戶心聲並與其密切合作確保提供上乘的產品和服務滿足其需求。鴻昇集團訓練有素的員工及其全心服務隨時為您提供全年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>365</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天無休一周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天及一天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小時服務。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>We are specialize in Electronics, Manufacturing, Consumer, Industrial and Bakery &amp; Pastry. Recognized as the pioneer of connectivity &amp; wire harness, Hung Shang Group offers the most comprehensive range of services and most competitive price to the market. Hung Shang Group’s products are known for their quality, scalability, ease of use and innovative technology. We listen carefully to our customers and work with them closely to ensure they receive the best products and service to fulfill their needs.</t>
+  </si>
+  <si>
+    <t>organizational Structure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -170,6 +297,7 @@
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -192,7 +320,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,6 +337,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -327,7 +461,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -349,9 +483,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -374,6 +505,39 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -503,7 +667,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -1674,18 +1838,18 @@
   <dimension ref="A1:IV10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42" style="1" customWidth="1"/>
-    <col min="4" max="256" width="16.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="79.28515625" style="1" customWidth="1"/>
+    <col min="4" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1699,95 +1863,631 @@
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
+      <c r="B2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:256" ht="31.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
+      <c r="B3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:256" ht="31.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
+      <c r="B4" s="11">
+        <v>1984</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" ht="27.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:256" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
+      <c r="B5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" ht="27.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:256" ht="189.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:256" s="24" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
+      <c r="B7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="23"/>
+      <c r="AF7" s="23"/>
+      <c r="AG7" s="23"/>
+      <c r="AH7" s="23"/>
+      <c r="AI7" s="23"/>
+      <c r="AJ7" s="23"/>
+      <c r="AK7" s="23"/>
+      <c r="AL7" s="23"/>
+      <c r="AM7" s="23"/>
+      <c r="AN7" s="23"/>
+      <c r="AO7" s="23"/>
+      <c r="AP7" s="23"/>
+      <c r="AQ7" s="23"/>
+      <c r="AR7" s="23"/>
+      <c r="AS7" s="23"/>
+      <c r="AT7" s="23"/>
+      <c r="AU7" s="23"/>
+      <c r="AV7" s="23"/>
+      <c r="AW7" s="23"/>
+      <c r="AX7" s="23"/>
+      <c r="AY7" s="23"/>
+      <c r="AZ7" s="23"/>
+      <c r="BA7" s="23"/>
+      <c r="BB7" s="23"/>
+      <c r="BC7" s="23"/>
+      <c r="BD7" s="23"/>
+      <c r="BE7" s="23"/>
+      <c r="BF7" s="23"/>
+      <c r="BG7" s="23"/>
+      <c r="BH7" s="23"/>
+      <c r="BI7" s="23"/>
+      <c r="BJ7" s="23"/>
+      <c r="BK7" s="23"/>
+      <c r="BL7" s="23"/>
+      <c r="BM7" s="23"/>
+      <c r="BN7" s="23"/>
+      <c r="BO7" s="23"/>
+      <c r="BP7" s="23"/>
+      <c r="BQ7" s="23"/>
+      <c r="BR7" s="23"/>
+      <c r="BS7" s="23"/>
+      <c r="BT7" s="23"/>
+      <c r="BU7" s="23"/>
+      <c r="BV7" s="23"/>
+      <c r="BW7" s="23"/>
+      <c r="BX7" s="23"/>
+      <c r="BY7" s="23"/>
+      <c r="BZ7" s="23"/>
+      <c r="CA7" s="23"/>
+      <c r="CB7" s="23"/>
+      <c r="CC7" s="23"/>
+      <c r="CD7" s="23"/>
+      <c r="CE7" s="23"/>
+      <c r="CF7" s="23"/>
+      <c r="CG7" s="23"/>
+      <c r="CH7" s="23"/>
+      <c r="CI7" s="23"/>
+      <c r="CJ7" s="23"/>
+      <c r="CK7" s="23"/>
+      <c r="CL7" s="23"/>
+      <c r="CM7" s="23"/>
+      <c r="CN7" s="23"/>
+      <c r="CO7" s="23"/>
+      <c r="CP7" s="23"/>
+      <c r="CQ7" s="23"/>
+      <c r="CR7" s="23"/>
+      <c r="CS7" s="23"/>
+      <c r="CT7" s="23"/>
+      <c r="CU7" s="23"/>
+      <c r="CV7" s="23"/>
+      <c r="CW7" s="23"/>
+      <c r="CX7" s="23"/>
+      <c r="CY7" s="23"/>
+      <c r="CZ7" s="23"/>
+      <c r="DA7" s="23"/>
+      <c r="DB7" s="23"/>
+      <c r="DC7" s="23"/>
+      <c r="DD7" s="23"/>
+      <c r="DE7" s="23"/>
+      <c r="DF7" s="23"/>
+      <c r="DG7" s="23"/>
+      <c r="DH7" s="23"/>
+      <c r="DI7" s="23"/>
+      <c r="DJ7" s="23"/>
+      <c r="DK7" s="23"/>
+      <c r="DL7" s="23"/>
+      <c r="DM7" s="23"/>
+      <c r="DN7" s="23"/>
+      <c r="DO7" s="23"/>
+      <c r="DP7" s="23"/>
+      <c r="DQ7" s="23"/>
+      <c r="DR7" s="23"/>
+      <c r="DS7" s="23"/>
+      <c r="DT7" s="23"/>
+      <c r="DU7" s="23"/>
+      <c r="DV7" s="23"/>
+      <c r="DW7" s="23"/>
+      <c r="DX7" s="23"/>
+      <c r="DY7" s="23"/>
+      <c r="DZ7" s="23"/>
+      <c r="EA7" s="23"/>
+      <c r="EB7" s="23"/>
+      <c r="EC7" s="23"/>
+      <c r="ED7" s="23"/>
+      <c r="EE7" s="23"/>
+      <c r="EF7" s="23"/>
+      <c r="EG7" s="23"/>
+      <c r="EH7" s="23"/>
+      <c r="EI7" s="23"/>
+      <c r="EJ7" s="23"/>
+      <c r="EK7" s="23"/>
+      <c r="EL7" s="23"/>
+      <c r="EM7" s="23"/>
+      <c r="EN7" s="23"/>
+      <c r="EO7" s="23"/>
+      <c r="EP7" s="23"/>
+      <c r="EQ7" s="23"/>
+      <c r="ER7" s="23"/>
+      <c r="ES7" s="23"/>
+      <c r="ET7" s="23"/>
+      <c r="EU7" s="23"/>
+      <c r="EV7" s="23"/>
+      <c r="EW7" s="23"/>
+      <c r="EX7" s="23"/>
+      <c r="EY7" s="23"/>
+      <c r="EZ7" s="23"/>
+      <c r="FA7" s="23"/>
+      <c r="FB7" s="23"/>
+      <c r="FC7" s="23"/>
+      <c r="FD7" s="23"/>
+      <c r="FE7" s="23"/>
+      <c r="FF7" s="23"/>
+      <c r="FG7" s="23"/>
+      <c r="FH7" s="23"/>
+      <c r="FI7" s="23"/>
+      <c r="FJ7" s="23"/>
+      <c r="FK7" s="23"/>
+      <c r="FL7" s="23"/>
+      <c r="FM7" s="23"/>
+      <c r="FN7" s="23"/>
+      <c r="FO7" s="23"/>
+      <c r="FP7" s="23"/>
+      <c r="FQ7" s="23"/>
+      <c r="FR7" s="23"/>
+      <c r="FS7" s="23"/>
+      <c r="FT7" s="23"/>
+      <c r="FU7" s="23"/>
+      <c r="FV7" s="23"/>
+      <c r="FW7" s="23"/>
+      <c r="FX7" s="23"/>
+      <c r="FY7" s="23"/>
+      <c r="FZ7" s="23"/>
+      <c r="GA7" s="23"/>
+      <c r="GB7" s="23"/>
+      <c r="GC7" s="23"/>
+      <c r="GD7" s="23"/>
+      <c r="GE7" s="23"/>
+      <c r="GF7" s="23"/>
+      <c r="GG7" s="23"/>
+      <c r="GH7" s="23"/>
+      <c r="GI7" s="23"/>
+      <c r="GJ7" s="23"/>
+      <c r="GK7" s="23"/>
+      <c r="GL7" s="23"/>
+      <c r="GM7" s="23"/>
+      <c r="GN7" s="23"/>
+      <c r="GO7" s="23"/>
+      <c r="GP7" s="23"/>
+      <c r="GQ7" s="23"/>
+      <c r="GR7" s="23"/>
+      <c r="GS7" s="23"/>
+      <c r="GT7" s="23"/>
+      <c r="GU7" s="23"/>
+      <c r="GV7" s="23"/>
+      <c r="GW7" s="23"/>
+      <c r="GX7" s="23"/>
+      <c r="GY7" s="23"/>
+      <c r="GZ7" s="23"/>
+      <c r="HA7" s="23"/>
+      <c r="HB7" s="23"/>
+      <c r="HC7" s="23"/>
+      <c r="HD7" s="23"/>
+      <c r="HE7" s="23"/>
+      <c r="HF7" s="23"/>
+      <c r="HG7" s="23"/>
+      <c r="HH7" s="23"/>
+      <c r="HI7" s="23"/>
+      <c r="HJ7" s="23"/>
+      <c r="HK7" s="23"/>
+      <c r="HL7" s="23"/>
+      <c r="HM7" s="23"/>
+      <c r="HN7" s="23"/>
+      <c r="HO7" s="23"/>
+      <c r="HP7" s="23"/>
+      <c r="HQ7" s="23"/>
+      <c r="HR7" s="23"/>
+      <c r="HS7" s="23"/>
+      <c r="HT7" s="23"/>
+      <c r="HU7" s="23"/>
+      <c r="HV7" s="23"/>
+      <c r="HW7" s="23"/>
+      <c r="HX7" s="23"/>
+      <c r="HY7" s="23"/>
+      <c r="HZ7" s="23"/>
+      <c r="IA7" s="23"/>
+      <c r="IB7" s="23"/>
+      <c r="IC7" s="23"/>
+      <c r="ID7" s="23"/>
+      <c r="IE7" s="23"/>
+      <c r="IF7" s="23"/>
+      <c r="IG7" s="23"/>
+      <c r="IH7" s="23"/>
+      <c r="II7" s="23"/>
+      <c r="IJ7" s="23"/>
+      <c r="IK7" s="23"/>
+      <c r="IL7" s="23"/>
+      <c r="IM7" s="23"/>
+      <c r="IN7" s="23"/>
+      <c r="IO7" s="23"/>
+      <c r="IP7" s="23"/>
+      <c r="IQ7" s="23"/>
+      <c r="IR7" s="23"/>
+      <c r="IS7" s="23"/>
+      <c r="IT7" s="23"/>
+      <c r="IU7" s="23"/>
+      <c r="IV7" s="23"/>
     </row>
-    <row r="7" spans="1:6" ht="27.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+    <row r="8" spans="1:256" s="24" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
+      <c r="B8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="23"/>
+      <c r="AH8" s="23"/>
+      <c r="AI8" s="23"/>
+      <c r="AJ8" s="23"/>
+      <c r="AK8" s="23"/>
+      <c r="AL8" s="23"/>
+      <c r="AM8" s="23"/>
+      <c r="AN8" s="23"/>
+      <c r="AO8" s="23"/>
+      <c r="AP8" s="23"/>
+      <c r="AQ8" s="23"/>
+      <c r="AR8" s="23"/>
+      <c r="AS8" s="23"/>
+      <c r="AT8" s="23"/>
+      <c r="AU8" s="23"/>
+      <c r="AV8" s="23"/>
+      <c r="AW8" s="23"/>
+      <c r="AX8" s="23"/>
+      <c r="AY8" s="23"/>
+      <c r="AZ8" s="23"/>
+      <c r="BA8" s="23"/>
+      <c r="BB8" s="23"/>
+      <c r="BC8" s="23"/>
+      <c r="BD8" s="23"/>
+      <c r="BE8" s="23"/>
+      <c r="BF8" s="23"/>
+      <c r="BG8" s="23"/>
+      <c r="BH8" s="23"/>
+      <c r="BI8" s="23"/>
+      <c r="BJ8" s="23"/>
+      <c r="BK8" s="23"/>
+      <c r="BL8" s="23"/>
+      <c r="BM8" s="23"/>
+      <c r="BN8" s="23"/>
+      <c r="BO8" s="23"/>
+      <c r="BP8" s="23"/>
+      <c r="BQ8" s="23"/>
+      <c r="BR8" s="23"/>
+      <c r="BS8" s="23"/>
+      <c r="BT8" s="23"/>
+      <c r="BU8" s="23"/>
+      <c r="BV8" s="23"/>
+      <c r="BW8" s="23"/>
+      <c r="BX8" s="23"/>
+      <c r="BY8" s="23"/>
+      <c r="BZ8" s="23"/>
+      <c r="CA8" s="23"/>
+      <c r="CB8" s="23"/>
+      <c r="CC8" s="23"/>
+      <c r="CD8" s="23"/>
+      <c r="CE8" s="23"/>
+      <c r="CF8" s="23"/>
+      <c r="CG8" s="23"/>
+      <c r="CH8" s="23"/>
+      <c r="CI8" s="23"/>
+      <c r="CJ8" s="23"/>
+      <c r="CK8" s="23"/>
+      <c r="CL8" s="23"/>
+      <c r="CM8" s="23"/>
+      <c r="CN8" s="23"/>
+      <c r="CO8" s="23"/>
+      <c r="CP8" s="23"/>
+      <c r="CQ8" s="23"/>
+      <c r="CR8" s="23"/>
+      <c r="CS8" s="23"/>
+      <c r="CT8" s="23"/>
+      <c r="CU8" s="23"/>
+      <c r="CV8" s="23"/>
+      <c r="CW8" s="23"/>
+      <c r="CX8" s="23"/>
+      <c r="CY8" s="23"/>
+      <c r="CZ8" s="23"/>
+      <c r="DA8" s="23"/>
+      <c r="DB8" s="23"/>
+      <c r="DC8" s="23"/>
+      <c r="DD8" s="23"/>
+      <c r="DE8" s="23"/>
+      <c r="DF8" s="23"/>
+      <c r="DG8" s="23"/>
+      <c r="DH8" s="23"/>
+      <c r="DI8" s="23"/>
+      <c r="DJ8" s="23"/>
+      <c r="DK8" s="23"/>
+      <c r="DL8" s="23"/>
+      <c r="DM8" s="23"/>
+      <c r="DN8" s="23"/>
+      <c r="DO8" s="23"/>
+      <c r="DP8" s="23"/>
+      <c r="DQ8" s="23"/>
+      <c r="DR8" s="23"/>
+      <c r="DS8" s="23"/>
+      <c r="DT8" s="23"/>
+      <c r="DU8" s="23"/>
+      <c r="DV8" s="23"/>
+      <c r="DW8" s="23"/>
+      <c r="DX8" s="23"/>
+      <c r="DY8" s="23"/>
+      <c r="DZ8" s="23"/>
+      <c r="EA8" s="23"/>
+      <c r="EB8" s="23"/>
+      <c r="EC8" s="23"/>
+      <c r="ED8" s="23"/>
+      <c r="EE8" s="23"/>
+      <c r="EF8" s="23"/>
+      <c r="EG8" s="23"/>
+      <c r="EH8" s="23"/>
+      <c r="EI8" s="23"/>
+      <c r="EJ8" s="23"/>
+      <c r="EK8" s="23"/>
+      <c r="EL8" s="23"/>
+      <c r="EM8" s="23"/>
+      <c r="EN8" s="23"/>
+      <c r="EO8" s="23"/>
+      <c r="EP8" s="23"/>
+      <c r="EQ8" s="23"/>
+      <c r="ER8" s="23"/>
+      <c r="ES8" s="23"/>
+      <c r="ET8" s="23"/>
+      <c r="EU8" s="23"/>
+      <c r="EV8" s="23"/>
+      <c r="EW8" s="23"/>
+      <c r="EX8" s="23"/>
+      <c r="EY8" s="23"/>
+      <c r="EZ8" s="23"/>
+      <c r="FA8" s="23"/>
+      <c r="FB8" s="23"/>
+      <c r="FC8" s="23"/>
+      <c r="FD8" s="23"/>
+      <c r="FE8" s="23"/>
+      <c r="FF8" s="23"/>
+      <c r="FG8" s="23"/>
+      <c r="FH8" s="23"/>
+      <c r="FI8" s="23"/>
+      <c r="FJ8" s="23"/>
+      <c r="FK8" s="23"/>
+      <c r="FL8" s="23"/>
+      <c r="FM8" s="23"/>
+      <c r="FN8" s="23"/>
+      <c r="FO8" s="23"/>
+      <c r="FP8" s="23"/>
+      <c r="FQ8" s="23"/>
+      <c r="FR8" s="23"/>
+      <c r="FS8" s="23"/>
+      <c r="FT8" s="23"/>
+      <c r="FU8" s="23"/>
+      <c r="FV8" s="23"/>
+      <c r="FW8" s="23"/>
+      <c r="FX8" s="23"/>
+      <c r="FY8" s="23"/>
+      <c r="FZ8" s="23"/>
+      <c r="GA8" s="23"/>
+      <c r="GB8" s="23"/>
+      <c r="GC8" s="23"/>
+      <c r="GD8" s="23"/>
+      <c r="GE8" s="23"/>
+      <c r="GF8" s="23"/>
+      <c r="GG8" s="23"/>
+      <c r="GH8" s="23"/>
+      <c r="GI8" s="23"/>
+      <c r="GJ8" s="23"/>
+      <c r="GK8" s="23"/>
+      <c r="GL8" s="23"/>
+      <c r="GM8" s="23"/>
+      <c r="GN8" s="23"/>
+      <c r="GO8" s="23"/>
+      <c r="GP8" s="23"/>
+      <c r="GQ8" s="23"/>
+      <c r="GR8" s="23"/>
+      <c r="GS8" s="23"/>
+      <c r="GT8" s="23"/>
+      <c r="GU8" s="23"/>
+      <c r="GV8" s="23"/>
+      <c r="GW8" s="23"/>
+      <c r="GX8" s="23"/>
+      <c r="GY8" s="23"/>
+      <c r="GZ8" s="23"/>
+      <c r="HA8" s="23"/>
+      <c r="HB8" s="23"/>
+      <c r="HC8" s="23"/>
+      <c r="HD8" s="23"/>
+      <c r="HE8" s="23"/>
+      <c r="HF8" s="23"/>
+      <c r="HG8" s="23"/>
+      <c r="HH8" s="23"/>
+      <c r="HI8" s="23"/>
+      <c r="HJ8" s="23"/>
+      <c r="HK8" s="23"/>
+      <c r="HL8" s="23"/>
+      <c r="HM8" s="23"/>
+      <c r="HN8" s="23"/>
+      <c r="HO8" s="23"/>
+      <c r="HP8" s="23"/>
+      <c r="HQ8" s="23"/>
+      <c r="HR8" s="23"/>
+      <c r="HS8" s="23"/>
+      <c r="HT8" s="23"/>
+      <c r="HU8" s="23"/>
+      <c r="HV8" s="23"/>
+      <c r="HW8" s="23"/>
+      <c r="HX8" s="23"/>
+      <c r="HY8" s="23"/>
+      <c r="HZ8" s="23"/>
+      <c r="IA8" s="23"/>
+      <c r="IB8" s="23"/>
+      <c r="IC8" s="23"/>
+      <c r="ID8" s="23"/>
+      <c r="IE8" s="23"/>
+      <c r="IF8" s="23"/>
+      <c r="IG8" s="23"/>
+      <c r="IH8" s="23"/>
+      <c r="II8" s="23"/>
+      <c r="IJ8" s="23"/>
+      <c r="IK8" s="23"/>
+      <c r="IL8" s="23"/>
+      <c r="IM8" s="23"/>
+      <c r="IN8" s="23"/>
+      <c r="IO8" s="23"/>
+      <c r="IP8" s="23"/>
+      <c r="IQ8" s="23"/>
+      <c r="IR8" s="23"/>
+      <c r="IS8" s="23"/>
+      <c r="IT8" s="23"/>
+      <c r="IU8" s="23"/>
+      <c r="IV8" s="23"/>
     </row>
-    <row r="8" spans="1:6" ht="27.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="9" spans="1:256" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
+      <c r="B9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
     </row>
-    <row r="9" spans="1:6" ht="27.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="10" spans="1:256" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" ht="27.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
+      <c r="B10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/api/data/关于鸿昇.xlsx
+++ b/src/api/data/关于鸿昇.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucky\Desktop\网站翻译\资料修改\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\hongsheng\src\api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32DBB6E-A5AB-4CF1-B12A-DA736A890F58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="15960" windowHeight="18090"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="15960" windowHeight="18090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="头部导航" sheetId="1" r:id="rId1"/>
@@ -213,80 +214,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>鴻昇集團致力於電子、製造、消費、實業以及烘焙和甜點行業。作為公認的連接器及線束行業先鋒，鴻昇集團提供最全面的服務以及最具競爭力的價格。鴻昇集團的產品以其質量、擴展性、易用性以及創新型科技而廣受歡迎。我們仔細聆聽客戶心聲並與其密切合作確保提供上乘的產品和服務滿足其需求。鴻昇集團訓練有素的員工及其全心服務隨時為您提供全年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>365</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天無休一周</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天及一天</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小時服務。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>We are specialize in Electronics, Manufacturing, Consumer, Industrial and Bakery &amp; Pastry. Recognized as the pioneer of connectivity &amp; wire harness, Hung Shang Group offers the most comprehensive range of services and most competitive price to the market. Hung Shang Group’s products are known for their quality, scalability, ease of use and innovative technology. We listen carefully to our customers and work with them closely to ensure they receive the best products and service to fulfill their needs.</t>
   </si>
   <si>
     <t>organizational Structure</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>鸿昇集團致力於電子、製造、消費、實業以及烘焙和甜點行業。作為公認的連接器及線束行業先鋒，鸿昇集團提供最全面的服務以及最具競爭力的價格。鸿昇集團的產品以其質量、擴展性、易用性以及創新型科技而廣受歡迎。我們仔細聆聽客戶心聲並與其密切合作確保提供上乘的產品和服務滿足其需求。鸿昇集團訓練有素的員工及其全心服務隨時為您提供全年365天無休一周7天及一天24小時服務。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -667,7 +608,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -1831,25 +1772,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="16.26953125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="79.28515625" style="1" customWidth="1"/>
-    <col min="4" max="256" width="16.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="79.26953125" style="1" customWidth="1"/>
+    <col min="4" max="256" width="16.26953125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1863,7 +1804,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
@@ -1877,7 +1818,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:256" ht="31.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:256" ht="31.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
@@ -1891,7 +1832,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:256" ht="31.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:256" ht="31.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -1905,7 +1846,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:256" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:256" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -1919,21 +1860,21 @@
       <c r="E5" s="8"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:256" ht="189.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:256" ht="190" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:256" s="24" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:256" s="24" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>7</v>
       </c>
@@ -2197,7 +2138,7 @@
       <c r="IU7" s="23"/>
       <c r="IV7" s="23"/>
     </row>
-    <row r="8" spans="1:256" s="24" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:256" s="24" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>8</v>
       </c>
@@ -2461,7 +2402,7 @@
       <c r="IU8" s="23"/>
       <c r="IV8" s="23"/>
     </row>
-    <row r="9" spans="1:256" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:256" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
@@ -2469,13 +2410,13 @@
         <v>16</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:256" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:256" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
